--- a/Kundlik Matere.xlsx
+++ b/Kundlik Matere.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DATTA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DATTA\Desktop\Demo\demo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="56">
   <si>
     <t>Shop front side paver Block work</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Chamber Less-300 x 300</t>
+  </si>
+  <si>
+    <t>gfgjhfkgj</t>
   </si>
 </sst>
 </file>
@@ -298,9 +301,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -316,6 +316,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,10 +611,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -729,7 +732,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -782,13 +785,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <f>SUM(H10:H11)*10.764</f>
         <v>383.19839999999999</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -829,7 +832,7 @@
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -873,7 +876,7 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -896,15 +899,15 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C26" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="C26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="10">
         <v>1</v>
       </c>
       <c r="E26" s="5">
@@ -935,10 +938,10 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C27" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="11">
+      <c r="C27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="10">
         <v>7</v>
       </c>
       <c r="E27" s="5">
@@ -956,8 +959,8 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -980,7 +983,7 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -988,10 +991,10 @@
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="11">
+      <c r="C32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="10">
         <v>14</v>
       </c>
       <c r="E32" s="5">
@@ -1012,7 +1015,7 @@
       <c r="B33" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="5">
@@ -1026,7 +1029,7 @@
       <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="5">
@@ -1047,7 +1050,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="5">
@@ -1071,10 +1074,10 @@
       <c r="B36" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="11">
+      <c r="C36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="10">
         <v>7</v>
       </c>
       <c r="E36" s="5">
@@ -1092,15 +1095,15 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <f>SUM(H32:H36)*35.28</f>
         <v>565.30978559999994</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
       <c r="H38" s="6">
         <f>H28-H37</f>
         <v>2768.6502144000001</v>
@@ -1110,10 +1113,10 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="9"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1124,7 +1127,7 @@
       <c r="C42" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="10">
         <v>7</v>
       </c>
       <c r="E42" s="5">
@@ -1142,7 +1145,7 @@
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H43" s="13">
+      <c r="H43" s="12">
         <f>H42*10.764</f>
         <v>90.417599999999993</v>
       </c>
@@ -1193,7 +1196,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1228,7 +1231,7 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1252,16 +1255,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <f>H13*10.764</f>
         <v>66.52152000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="8"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1290,7 +1293,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1306,7 +1309,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1314,7 +1317,7 @@
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="5">
@@ -1335,13 +1338,13 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H24" s="13">
+      <c r="H24" s="12">
         <f>H23*10.764</f>
         <v>110.86920000000001</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1391,7 +1394,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C29" t="s">
@@ -1415,7 +1418,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C30" t="s">
@@ -1439,7 +1442,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H31" s="13">
+      <c r="H31" s="12">
         <f>SUM(H27:H30)*35.28</f>
         <v>675.70513920000008</v>
       </c>
@@ -1495,7 +1498,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1542,16 +1545,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <f>SUM(H11:H12)*35.28</f>
         <v>4241.0088000000005</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H14" s="13"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1575,7 +1578,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
@@ -1597,7 +1600,7 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
@@ -1619,13 +1622,13 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <f>SUM(H16:H18)*10.764</f>
         <v>640.67327999999998</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1691,7 +1694,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1768,7 +1771,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1798,7 +1801,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C34" t="s">
@@ -1822,7 +1825,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C35" t="s">
@@ -1886,13 +1889,13 @@
       <c r="G38" s="5">
         <v>0.3</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="10">
         <f>+D38*E38*F38*G38</f>
         <v>2.8439999999999999</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C39" t="s">
@@ -1916,7 +1919,7 @@
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C40" t="s">
@@ -1940,32 +1943,32 @@
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
+      <c r="B41" s="9"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="11">
+      <c r="H41" s="10">
         <f>SUM(H33:H40)*35.28</f>
         <v>773.54928000000007</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="10"/>
+      <c r="B42" s="9"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="13">
+      <c r="H42" s="12">
         <f>H13-H41</f>
         <v>3467.4595200000003</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1988,7 +1991,7 @@
       <c r="G45" s="5">
         <v>0.35</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="10">
         <f>+D45*E45*F45*G45</f>
         <v>4.13</v>
       </c>
@@ -2012,13 +2015,13 @@
       <c r="G46" s="5">
         <v>0.3</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="10">
         <f>+D46*E46*F46*G46</f>
         <v>9.48</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H47" s="8">
+      <c r="H47" s="7">
         <f>SUM(H45:H46)*10.764</f>
         <v>146.49803999999997</v>
       </c>
@@ -2030,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:H32"/>
+  <dimension ref="A6:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2069,7 +2072,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2101,7 +2104,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -2125,13 +2128,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <f>+H14*10.764</f>
         <v>38.750399999999999</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2157,13 +2160,13 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <f>+H18*10.764</f>
         <v>29.062799999999996</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2179,7 +2182,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C24" t="s">
@@ -2203,12 +2206,12 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C27" t="s">
@@ -2232,7 +2235,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C28" t="s">
@@ -2256,7 +2259,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
+      <c r="B29" s="9"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -2264,7 +2267,7 @@
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C30" t="s">
@@ -2294,9 +2297,14 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H32" s="8">
+      <c r="H32" s="7">
         <f>H12-H31</f>
         <v>71.283240000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Kundlik Matere.xlsx
+++ b/Kundlik Matere.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
   <si>
     <t>Shop front side paver Block work</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>gfgjhfkgj</t>
+  </si>
+  <si>
+    <t>mote vhgjhsj</t>
   </si>
 </sst>
 </file>
@@ -2033,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:H34"/>
+  <dimension ref="A6:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2307,6 +2310,11 @@
         <v>55</v>
       </c>
     </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kundlik Matere.xlsx
+++ b/Kundlik Matere.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
   <si>
     <t>Shop front side paver Block work</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>mote vhgjhsj</t>
+  </si>
+  <si>
+    <t>dfsgddhf</t>
   </si>
 </sst>
 </file>
@@ -2039,7 +2042,7 @@
   <dimension ref="A6:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2310,6 +2313,11 @@
         <v>55</v>
       </c>
     </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>56</v>

--- a/Kundlik Matere.xlsx
+++ b/Kundlik Matere.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="59">
   <si>
     <t>Shop front side paver Block work</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>dfsgddhf</t>
+  </si>
+  <si>
+    <t>dfgg</t>
   </si>
 </sst>
 </file>
@@ -2042,7 +2045,7 @@
   <dimension ref="A6:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2313,6 +2316,11 @@
         <v>55</v>
       </c>
     </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>57</v>
